--- a/Moscow neighbourhoods.xlsx
+++ b/Moscow neighbourhoods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitaly\Desktop\Python\IBM\projects\Coursera_Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitaly\Desktop\github\Coursera_Applied_DS_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6933CB-DF63-4A20-A61B-12D607DBAC40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83548D96-EB9D-44E9-A7AD-14915BE64188}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Neighborhood</t>
   </si>
@@ -31,24 +31,18 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Population Density</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Radii</t>
   </si>
   <si>
     <t>Академический</t>
   </si>
   <si>
-    <t>район</t>
-  </si>
-  <si>
     <t>Алексеевский</t>
   </si>
   <si>
@@ -424,9 +418,6 @@
     <t>Внуковское</t>
   </si>
   <si>
-    <t>поселение</t>
-  </si>
-  <si>
     <t>Вороновское</t>
   </si>
   <si>
@@ -476,9 +467,6 @@
   </si>
   <si>
     <t>Троицк</t>
-  </si>
-  <si>
-    <t>городской округ</t>
   </si>
   <si>
     <t>Филимонковское</t>
@@ -850,17 +838,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,3804 +873,3363 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>583</v>
+        <v>5830000</v>
       </c>
       <c r="D2">
         <v>109387</v>
       </c>
       <c r="E2">
-        <v>18762.78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+        <v>55.689359449999998</v>
+      </c>
+      <c r="F2">
+        <v>37.577970527675383</v>
       </c>
       <c r="G2">
-        <v>55.689359449999998</v>
-      </c>
-      <c r="H2">
-        <v>37.577970527675383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>529</v>
+        <v>5290000</v>
       </c>
       <c r="D3">
         <v>80534</v>
       </c>
       <c r="E3">
-        <v>15223.82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+        <v>55.811043849999997</v>
+      </c>
+      <c r="F3">
+        <v>37.648999101944277</v>
       </c>
       <c r="G3">
-        <v>55.811043849999997</v>
-      </c>
-      <c r="H3">
-        <v>37.648999101944277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>325</v>
+        <v>3250000</v>
       </c>
       <c r="D4">
         <v>57596</v>
       </c>
       <c r="E4">
-        <v>17721.849999999999</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+        <v>55.878695100000002</v>
+      </c>
+      <c r="F4">
+        <v>37.586769708112193</v>
       </c>
       <c r="G4">
-        <v>55.878695100000002</v>
-      </c>
-      <c r="H4">
-        <v>37.586769708112193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>2110000</v>
       </c>
       <c r="D5">
         <v>36125</v>
       </c>
       <c r="E5">
-        <v>17120.849999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+        <v>55.751199</v>
+      </c>
+      <c r="F5">
+        <v>37.589871500000001</v>
       </c>
       <c r="G5">
-        <v>55.751199</v>
-      </c>
-      <c r="H5">
-        <v>37.589871500000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>458</v>
+        <v>4580000</v>
       </c>
       <c r="D6">
         <v>79486</v>
       </c>
       <c r="E6">
-        <v>17355.02</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
+        <v>55.80050395</v>
+      </c>
+      <c r="F6">
+        <v>37.543864093175259</v>
       </c>
       <c r="G6">
-        <v>55.80050395</v>
-      </c>
-      <c r="H6">
-        <v>37.543864093175259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>507</v>
+        <v>5070000</v>
       </c>
       <c r="D7">
         <v>88537</v>
       </c>
       <c r="E7">
-        <v>17462.919999999998</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
+        <v>55.867159800000003</v>
+      </c>
+      <c r="F7">
+        <v>37.663074699296779</v>
       </c>
       <c r="G7">
-        <v>55.867159800000003</v>
-      </c>
-      <c r="H7">
-        <v>37.663074699296779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>837</v>
+        <v>8370000</v>
       </c>
       <c r="D8">
         <v>110694</v>
       </c>
       <c r="E8">
-        <v>13225.09</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
+        <v>55.767280900000003</v>
+      </c>
+      <c r="F8">
+        <v>37.669773200000002</v>
       </c>
       <c r="G8">
-        <v>55.767280900000003</v>
-      </c>
-      <c r="H8">
-        <v>37.669773200000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>556</v>
+        <v>5560000</v>
       </c>
       <c r="D9">
         <v>42781</v>
       </c>
       <c r="E9">
-        <v>7694.42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
+        <v>55.781916500000001</v>
+      </c>
+      <c r="F9">
+        <v>37.566299600000001</v>
       </c>
       <c r="G9">
-        <v>55.781916500000001</v>
-      </c>
-      <c r="H9">
-        <v>37.566299600000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>330</v>
+        <v>3300000</v>
       </c>
       <c r="D10">
         <v>79603</v>
       </c>
       <c r="E10">
-        <v>24122.12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
+        <v>55.863738599999998</v>
+      </c>
+      <c r="F10">
+        <v>37.557321651980452</v>
       </c>
       <c r="G10">
-        <v>55.863738599999998</v>
-      </c>
-      <c r="H10">
-        <v>37.557321651980452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>645</v>
+        <v>6450000</v>
       </c>
       <c r="D11">
         <v>160163</v>
       </c>
       <c r="E11">
-        <v>24831.47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
+        <v>55.89531865</v>
+      </c>
+      <c r="F11">
+        <v>37.612988910040428</v>
       </c>
       <c r="G11">
-        <v>55.89531865</v>
-      </c>
-      <c r="H11">
-        <v>37.612988910040428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>1477</v>
+        <v>14770000</v>
       </c>
       <c r="D12">
         <v>155863</v>
       </c>
       <c r="E12">
-        <v>10552.67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
+        <v>55.5961213</v>
+      </c>
+      <c r="F12">
+        <v>37.675254700000004</v>
       </c>
       <c r="G12">
-        <v>55.5961213</v>
-      </c>
-      <c r="H12">
-        <v>37.675254700000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>851</v>
+        <v>8510000</v>
       </c>
       <c r="D13">
         <v>88672</v>
       </c>
       <c r="E13">
-        <v>10419.74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
+        <v>55.590976650000002</v>
+      </c>
+      <c r="F13">
+        <v>37.63530445566829</v>
       </c>
       <c r="G13">
-        <v>55.590976650000002</v>
-      </c>
-      <c r="H13">
-        <v>37.63530445566829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>1024</v>
+        <v>10240000</v>
       </c>
       <c r="D14">
         <v>109324</v>
       </c>
       <c r="E14">
-        <v>10676.17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
+        <v>55.819928699999998</v>
+      </c>
+      <c r="F14">
+        <v>37.702941213837647</v>
       </c>
       <c r="G14">
-        <v>55.819928699999998</v>
-      </c>
-      <c r="H14">
-        <v>37.702941213837647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>763</v>
+        <v>7630000</v>
       </c>
       <c r="D15">
         <v>110021</v>
       </c>
       <c r="E15">
-        <v>14419.53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
+        <v>55.632730500000001</v>
+      </c>
+      <c r="F15">
+        <v>37.757252020659848</v>
       </c>
       <c r="G15">
-        <v>55.632730500000001</v>
-      </c>
-      <c r="H15">
-        <v>37.757252020659848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>504</v>
+        <v>5040000</v>
       </c>
       <c r="D16">
         <v>71458</v>
       </c>
       <c r="E16">
-        <v>14178.17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
+        <v>55.814596899999998</v>
+      </c>
+      <c r="F16">
+        <v>37.593055000816413</v>
       </c>
       <c r="G16">
-        <v>55.814596899999998</v>
-      </c>
-      <c r="H16">
-        <v>37.593055000816413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>1072</v>
+        <v>10720000</v>
       </c>
       <c r="D17">
         <v>122285</v>
       </c>
       <c r="E17">
-        <v>11407.18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
+        <v>55.729256149999998</v>
+      </c>
+      <c r="F17">
+        <v>37.809089649857093</v>
       </c>
       <c r="G17">
-        <v>55.729256149999998</v>
-      </c>
-      <c r="H17">
-        <v>37.809089649857093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>1742</v>
+        <v>17420000</v>
       </c>
       <c r="D18">
         <v>25471</v>
       </c>
       <c r="E18">
-        <v>1462.17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
+        <v>55.601218799999998</v>
+      </c>
+      <c r="F18">
+        <v>37.277440213383933</v>
       </c>
       <c r="G18">
-        <v>55.601218799999998</v>
-      </c>
-      <c r="H18">
-        <v>37.277440213383933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>661</v>
+        <v>6610000</v>
       </c>
       <c r="D19">
         <v>70729</v>
       </c>
       <c r="E19">
-        <v>10700.3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
+        <v>55.827916500000001</v>
+      </c>
+      <c r="F19">
+        <v>37.495691155146801</v>
       </c>
       <c r="G19">
-        <v>55.827916500000001</v>
-      </c>
-      <c r="H19">
-        <v>37.495691155146801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>377</v>
+        <v>3770000</v>
       </c>
       <c r="D20">
         <v>98923</v>
       </c>
       <c r="E20">
-        <v>26239.52</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
+        <v>55.875872049999998</v>
+      </c>
+      <c r="F20">
+        <v>37.5632948148087</v>
       </c>
       <c r="G20">
-        <v>55.875872049999998</v>
-      </c>
-      <c r="H20">
-        <v>37.5632948148087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>385</v>
+        <v>3850000</v>
       </c>
       <c r="D21">
         <v>78154</v>
       </c>
       <c r="E21">
-        <v>20299.740000000002</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
+        <v>55.7956644</v>
+      </c>
+      <c r="F21">
+        <v>37.823370065112897</v>
       </c>
       <c r="G21">
-        <v>55.7956644</v>
-      </c>
-      <c r="H21">
-        <v>37.823370065112897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>314</v>
+        <v>3140000</v>
       </c>
       <c r="D22">
         <v>13689</v>
       </c>
       <c r="E22">
-        <v>4359.55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
+        <v>55.815216800000002</v>
+      </c>
+      <c r="F22">
+        <v>37.8656115</v>
       </c>
       <c r="G22">
-        <v>55.813369649999999</v>
-      </c>
-      <c r="H22">
-        <v>37.862584396744992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>1497</v>
+        <v>14970000</v>
       </c>
       <c r="D23">
         <v>225154</v>
       </c>
       <c r="E23">
-        <v>15040.35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
+        <v>55.698396950000003</v>
+      </c>
+      <c r="F23">
+        <v>37.82433210666472</v>
       </c>
       <c r="G23">
-        <v>55.698396950000003</v>
-      </c>
-      <c r="H23">
-        <v>37.82433210666472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>550</v>
+        <v>5500000</v>
       </c>
       <c r="D24">
         <v>81877</v>
       </c>
       <c r="E24">
-        <v>14886.73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
+        <v>55.698149950000001</v>
+      </c>
+      <c r="F24">
+        <v>37.557893550646646</v>
       </c>
       <c r="G24">
-        <v>55.698149950000001</v>
-      </c>
-      <c r="H24">
-        <v>37.557893550646646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>893</v>
+        <v>8930000</v>
       </c>
       <c r="D25">
         <v>103197</v>
       </c>
       <c r="E25">
-        <v>11556.22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
+        <v>55.849660200000002</v>
+      </c>
+      <c r="F25">
+        <v>37.5095405</v>
       </c>
       <c r="G25">
-        <v>55.851951850000013</v>
-      </c>
-      <c r="H25">
-        <v>37.522365065519878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>1499</v>
+        <v>14990000</v>
       </c>
       <c r="D26">
         <v>163009</v>
       </c>
       <c r="E26">
-        <v>10874.52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
+        <v>55.8168206</v>
+      </c>
+      <c r="F26">
+        <v>37.7981172</v>
       </c>
       <c r="G26">
-        <v>55.828264399999988</v>
-      </c>
-      <c r="H26">
-        <v>37.806146593294692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>1260</v>
+        <v>12600000</v>
       </c>
       <c r="D27">
         <v>94316</v>
       </c>
       <c r="E27">
-        <v>7485.4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
+        <v>55.706758000000001</v>
+      </c>
+      <c r="F27">
+        <v>37.638179920370703</v>
       </c>
       <c r="G27">
-        <v>55.706758000000001</v>
-      </c>
-      <c r="H27">
-        <v>37.638179920370703</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>729</v>
+        <v>7290000</v>
       </c>
       <c r="D28">
         <v>93468</v>
       </c>
       <c r="E28">
-        <v>12821.4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
+        <v>55.889938299999997</v>
+      </c>
+      <c r="F28">
+        <v>37.525623474453823</v>
       </c>
       <c r="G28">
-        <v>55.889938299999997</v>
-      </c>
-      <c r="H28">
-        <v>37.525623474453823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>573</v>
+        <v>5730000</v>
       </c>
       <c r="D29">
         <v>51894</v>
       </c>
       <c r="E29">
-        <v>9056.5400000000009</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
+        <v>55.705316850000003</v>
+      </c>
+      <c r="F29">
+        <v>37.599362835855963</v>
       </c>
       <c r="G29">
-        <v>55.705316850000003</v>
-      </c>
-      <c r="H29">
-        <v>37.599362835855963</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>795</v>
+        <v>7950000</v>
       </c>
       <c r="D30">
         <v>76093</v>
       </c>
       <c r="E30">
-        <v>9571.4500000000007</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
+        <v>55.738282400000003</v>
+      </c>
+      <c r="F30">
+        <v>37.538195386989059</v>
       </c>
       <c r="G30">
-        <v>55.738282400000003</v>
-      </c>
-      <c r="H30">
-        <v>37.538195386989059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>432</v>
+        <v>4320000</v>
       </c>
       <c r="D31">
         <v>59105</v>
       </c>
       <c r="E31">
-        <v>13681.71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
+        <v>55.735663700000003</v>
+      </c>
+      <c r="F31">
+        <v>37.634866899999999</v>
       </c>
       <c r="G31">
-        <v>55.735663700000003</v>
-      </c>
-      <c r="H31">
-        <v>37.634866899999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>753</v>
+        <v>7530000</v>
       </c>
       <c r="D32">
         <v>84163</v>
       </c>
       <c r="E32">
-        <v>11177.03</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
+        <v>55.870548149999998</v>
+      </c>
+      <c r="F32">
+        <v>37.520803946182347</v>
       </c>
       <c r="G32">
-        <v>55.870548149999998</v>
-      </c>
-      <c r="H32">
-        <v>37.520803946182347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>545</v>
+        <v>5450000</v>
       </c>
       <c r="D33">
         <v>126815</v>
       </c>
       <c r="E33">
-        <v>23268.81</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
+        <v>55.654263999999998</v>
+      </c>
+      <c r="F33">
+        <v>37.587024079824083</v>
       </c>
       <c r="G33">
-        <v>55.654263999999998</v>
-      </c>
-      <c r="H33">
-        <v>37.587024079824083</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34">
-        <v>438</v>
+        <v>4380000</v>
       </c>
       <c r="D34">
         <v>133278</v>
       </c>
       <c r="E34">
-        <v>30428.77</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
+        <v>55.6211068</v>
+      </c>
+      <c r="F34">
+        <v>37.746476284647301</v>
       </c>
       <c r="G34">
-        <v>55.6211068</v>
-      </c>
-      <c r="H34">
-        <v>37.746476284647301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35">
-        <v>1019</v>
+        <v>10190000</v>
       </c>
       <c r="D35">
         <v>128267</v>
       </c>
       <c r="E35">
-        <v>12587.54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
+        <v>55.770030400000003</v>
+      </c>
+      <c r="F35">
+        <v>37.825830500000002</v>
       </c>
       <c r="G35">
-        <v>55.770030400000003</v>
-      </c>
-      <c r="H35">
-        <v>37.825830500000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>1524</v>
+        <v>15240000</v>
       </c>
       <c r="D36">
         <v>107381</v>
       </c>
       <c r="E36">
-        <v>7046</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
+        <v>55.796615899999999</v>
+      </c>
+      <c r="F36">
+        <v>37.784154899999997</v>
       </c>
       <c r="G36">
-        <v>55.796615899999999</v>
-      </c>
-      <c r="H36">
-        <v>37.784154899999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37">
-        <v>806</v>
+        <v>8060000</v>
       </c>
       <c r="D37">
         <v>32399</v>
       </c>
       <c r="E37">
-        <v>4019.73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
+        <v>55.640647700000002</v>
+      </c>
+      <c r="F37">
+        <v>37.804027422223129</v>
       </c>
       <c r="G37">
-        <v>55.640647700000002</v>
-      </c>
-      <c r="H37">
-        <v>37.804027422223129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>718</v>
+        <v>7180000</v>
       </c>
       <c r="D38">
         <v>156389</v>
       </c>
       <c r="E38">
-        <v>21781.200000000001</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
+        <v>55.640463199999999</v>
+      </c>
+      <c r="F38">
+        <v>37.525645676368327</v>
       </c>
       <c r="G38">
-        <v>55.640463199999999</v>
-      </c>
-      <c r="H38">
-        <v>37.525645676368327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>538</v>
+        <v>5380000</v>
       </c>
       <c r="D39">
         <v>102076</v>
       </c>
       <c r="E39">
-        <v>18973.23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
+        <v>55.830064900000004</v>
+      </c>
+      <c r="F39">
+        <v>37.521738124886852</v>
       </c>
       <c r="G39">
-        <v>55.830064900000004</v>
-      </c>
-      <c r="H39">
-        <v>37.521738124886852</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>1505</v>
+        <v>15050000</v>
       </c>
       <c r="D40">
         <v>82267</v>
       </c>
       <c r="E40">
-        <v>5466.25</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
+        <v>55.713736300000001</v>
+      </c>
+      <c r="F40">
+        <v>37.888484800000001</v>
       </c>
       <c r="G40">
-        <v>55.713736300000001</v>
-      </c>
-      <c r="H40">
-        <v>37.888484800000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>394</v>
+        <v>3940000</v>
       </c>
       <c r="D41">
         <v>65892</v>
       </c>
       <c r="E41">
-        <v>16723.86</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
+        <v>55.677792650000001</v>
+      </c>
+      <c r="F41">
+        <v>37.596881446007743</v>
       </c>
       <c r="G41">
-        <v>55.677792650000001</v>
-      </c>
-      <c r="H41">
-        <v>37.596881446007743</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>496</v>
+        <v>4960000</v>
       </c>
       <c r="D42">
         <v>48697</v>
       </c>
       <c r="E42">
-        <v>9817.94</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
+        <v>55.777447199999997</v>
+      </c>
+      <c r="F42">
+        <v>37.654159800000002</v>
       </c>
       <c r="G42">
-        <v>55.777447199999997</v>
-      </c>
-      <c r="H42">
-        <v>37.654159800000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43">
-        <v>1204</v>
+        <v>12040000</v>
       </c>
       <c r="D43">
         <v>82817</v>
       </c>
       <c r="E43">
-        <v>6878.49</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
+        <v>55.76128705</v>
+      </c>
+      <c r="F43">
+        <v>37.425933745228818</v>
       </c>
       <c r="G43">
-        <v>55.76128705</v>
-      </c>
-      <c r="H43">
-        <v>37.425933745228818</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44">
-        <v>1049</v>
+        <v>10490000</v>
       </c>
       <c r="D44">
         <v>100098</v>
       </c>
       <c r="E44">
-        <v>9542.23</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
+        <v>55.970152400000003</v>
+      </c>
+      <c r="F44">
+        <v>37.175418299999997</v>
       </c>
       <c r="G44">
-        <v>55.976342899999999</v>
-      </c>
-      <c r="H44">
-        <v>37.159629099999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45">
-        <v>815</v>
+        <v>8150000</v>
       </c>
       <c r="D45">
         <v>145984</v>
       </c>
       <c r="E45">
-        <v>17912.150000000001</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
+        <v>55.698318049999997</v>
+      </c>
+      <c r="F45">
+        <v>37.771700688988552</v>
       </c>
       <c r="G45">
-        <v>55.698318049999997</v>
-      </c>
-      <c r="H45">
-        <v>37.771700688988552</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46">
-        <v>1656</v>
+        <v>16560000</v>
       </c>
       <c r="D46">
         <v>152364</v>
       </c>
       <c r="E46">
-        <v>9200.7199999999993</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
+        <v>55.786549399999998</v>
+      </c>
+      <c r="F46">
+        <v>37.339046536549851</v>
       </c>
       <c r="G46">
-        <v>55.786549399999998</v>
-      </c>
-      <c r="H46">
-        <v>37.339046536549851</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>790</v>
+        <v>7900000</v>
       </c>
       <c r="D47">
         <v>34012</v>
       </c>
       <c r="E47">
-        <v>4305.32</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
+        <v>55.891907250000003</v>
+      </c>
+      <c r="F47">
+        <v>37.390105501384127</v>
       </c>
       <c r="G47">
-        <v>55.891907250000003</v>
-      </c>
-      <c r="H47">
-        <v>37.390105501384127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48">
-        <v>800</v>
+        <v>8000000</v>
       </c>
       <c r="D48">
         <v>54596</v>
       </c>
       <c r="E48">
-        <v>6824.5</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
+        <v>55.865074300000003</v>
+      </c>
+      <c r="F48">
+        <v>37.469183100000002</v>
       </c>
       <c r="G48">
-        <v>55.865074300000003</v>
-      </c>
-      <c r="H48">
-        <v>37.469183100000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>906</v>
+        <v>9060000</v>
       </c>
       <c r="D49">
         <v>95343</v>
       </c>
       <c r="E49">
-        <v>10523.51</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
+        <v>55.757398799999997</v>
+      </c>
+      <c r="F49">
+        <v>37.704931899999998</v>
       </c>
       <c r="G49">
-        <v>55.757398799999997</v>
-      </c>
-      <c r="H49">
-        <v>37.704931899999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>579</v>
+        <v>5790000</v>
       </c>
       <c r="D50">
         <v>85901</v>
       </c>
       <c r="E50">
-        <v>14836.1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
+        <v>55.900156500000001</v>
+      </c>
+      <c r="F50">
+        <v>37.566279234750198</v>
       </c>
       <c r="G50">
-        <v>55.900156500000001</v>
-      </c>
-      <c r="H50">
-        <v>37.566279234750198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>334</v>
+        <v>3340000</v>
       </c>
       <c r="D51">
         <v>88320</v>
       </c>
       <c r="E51">
-        <v>26443.11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
+        <v>55.679218400000003</v>
+      </c>
+      <c r="F51">
+        <v>37.532496988485477</v>
       </c>
       <c r="G51">
-        <v>55.679218400000003</v>
-      </c>
-      <c r="H51">
-        <v>37.532496988485477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52">
-        <v>554</v>
+        <v>5540000</v>
       </c>
       <c r="D52">
         <v>82899</v>
       </c>
       <c r="E52">
-        <v>14963.72</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
+        <v>55.881323899999998</v>
+      </c>
+      <c r="F52">
+        <v>37.694545300000001</v>
       </c>
       <c r="G52">
-        <v>55.878222149999999</v>
-      </c>
-      <c r="H52">
-        <v>37.693924265512877</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>1741</v>
+        <v>17410000</v>
       </c>
       <c r="D53">
         <v>172054</v>
       </c>
       <c r="E53">
-        <v>9882.48</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
+        <v>55.674310000000013</v>
+      </c>
+      <c r="F53">
+        <v>37.782028218173117</v>
       </c>
       <c r="G53">
-        <v>55.674310000000013</v>
-      </c>
-      <c r="H53">
-        <v>37.782028218173117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54">
-        <v>297</v>
+        <v>2970000</v>
       </c>
       <c r="D54">
         <v>35387</v>
       </c>
       <c r="E54">
-        <v>11914.81</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
+        <v>55.833041649999998</v>
+      </c>
+      <c r="F54">
+        <v>37.591344657916352</v>
       </c>
       <c r="G54">
-        <v>55.833041649999998</v>
-      </c>
-      <c r="H54">
-        <v>37.591344657916352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>468</v>
+        <v>4680000</v>
       </c>
       <c r="D55">
         <v>67394</v>
       </c>
       <c r="E55">
-        <v>14400.43</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
+        <v>55.796370899999999</v>
+      </c>
+      <c r="F55">
+        <v>37.613634308005082</v>
       </c>
       <c r="G55">
-        <v>55.796370899999999</v>
-      </c>
-      <c r="H55">
-        <v>37.613634308005082</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>1191</v>
+        <v>11910000</v>
       </c>
       <c r="D56">
         <v>253943</v>
       </c>
       <c r="E56">
-        <v>21321.83</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
+        <v>55.6548284</v>
+      </c>
+      <c r="F56">
+        <v>37.747228148702398</v>
       </c>
       <c r="G56">
-        <v>55.6548284</v>
-      </c>
-      <c r="H56">
-        <v>37.747228148702398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>438</v>
+        <v>4380000</v>
       </c>
       <c r="D57">
         <v>40694</v>
       </c>
       <c r="E57">
-        <v>9290.8700000000008</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
+        <v>56.007576299999997</v>
+      </c>
+      <c r="F57">
+        <v>37.200578700000001</v>
       </c>
       <c r="G57">
-        <v>56.002687299999998</v>
-      </c>
-      <c r="H57">
-        <v>37.212159162134277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>2757</v>
+        <v>27570000</v>
       </c>
       <c r="D58">
         <v>39024</v>
       </c>
       <c r="E58">
-        <v>1415.45</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
+        <v>55.844314500000003</v>
+      </c>
+      <c r="F58">
+        <v>37.731132047500878</v>
       </c>
       <c r="G58">
-        <v>55.844314500000003</v>
-      </c>
-      <c r="H58">
-        <v>37.731132047500878</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59">
-        <v>460</v>
+        <v>4600000</v>
       </c>
       <c r="D59">
         <v>61213</v>
       </c>
       <c r="E59">
-        <v>13307.17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>8</v>
+        <v>55.779172000000003</v>
+      </c>
+      <c r="F59">
+        <v>37.627988600000002</v>
       </c>
       <c r="G59">
-        <v>55.779172000000003</v>
-      </c>
-      <c r="H59">
-        <v>37.627988600000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>1267</v>
+        <v>12670000</v>
       </c>
       <c r="D60">
         <v>194965</v>
       </c>
       <c r="E60">
-        <v>15387.92</v>
-      </c>
-      <c r="F60" t="s">
-        <v>8</v>
+        <v>55.844707799999988</v>
+      </c>
+      <c r="F60">
+        <v>37.368096017542378</v>
       </c>
       <c r="G60">
-        <v>55.844707799999988</v>
-      </c>
-      <c r="H60">
-        <v>37.368096017542378</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61">
-        <v>1073</v>
+        <v>10730000</v>
       </c>
       <c r="D61">
         <v>138610</v>
       </c>
       <c r="E61">
-        <v>12917.99</v>
-      </c>
-      <c r="F61" t="s">
-        <v>8</v>
+        <v>55.7031183</v>
+      </c>
+      <c r="F61">
+        <v>37.396988735940553</v>
       </c>
       <c r="G61">
-        <v>55.7031183</v>
-      </c>
-      <c r="H61">
-        <v>37.396988735940553</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>2178</v>
+        <v>21780000</v>
       </c>
       <c r="D62">
         <v>12194</v>
       </c>
       <c r="E62">
-        <v>559.87</v>
-      </c>
-      <c r="F62" t="s">
-        <v>8</v>
+        <v>55.932812200000001</v>
+      </c>
+      <c r="F62">
+        <v>37.372914213524282</v>
       </c>
       <c r="G62">
-        <v>55.932812200000001</v>
-      </c>
-      <c r="H62">
-        <v>37.372914213524282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C63">
-        <v>930</v>
+        <v>9300000</v>
       </c>
       <c r="D63">
         <v>80673</v>
       </c>
       <c r="E63">
-        <v>8674.52</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
+        <v>55.643214899999997</v>
+      </c>
+      <c r="F63">
+        <v>37.659509874534237</v>
       </c>
       <c r="G63">
-        <v>55.643214899999997</v>
-      </c>
-      <c r="H63">
-        <v>37.659509874534237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>817</v>
+        <v>8170000</v>
       </c>
       <c r="D64">
         <v>83496</v>
       </c>
       <c r="E64">
-        <v>10219.83</v>
-      </c>
-      <c r="F64" t="s">
-        <v>8</v>
+        <v>55.671857500000002</v>
+      </c>
+      <c r="F64">
+        <v>37.644622975481617</v>
       </c>
       <c r="G64">
-        <v>55.671857500000002</v>
-      </c>
-      <c r="H64">
-        <v>37.644622975481617</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>980</v>
+        <v>9800000</v>
       </c>
       <c r="D65">
         <v>120954</v>
       </c>
       <c r="E65">
-        <v>12342.24</v>
-      </c>
-      <c r="F65" t="s">
-        <v>8</v>
+        <v>55.6754775</v>
+      </c>
+      <c r="F65">
+        <v>37.681068368662068</v>
       </c>
       <c r="G65">
-        <v>55.6754775</v>
-      </c>
-      <c r="H65">
-        <v>37.681068368662068</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>542</v>
+        <v>5420000</v>
       </c>
       <c r="D66">
         <v>81731</v>
       </c>
       <c r="E66">
-        <v>15079.52</v>
-      </c>
-      <c r="F66" t="s">
-        <v>8</v>
+        <v>55.665586400000002</v>
+      </c>
+      <c r="F66">
+        <v>37.616878024335477</v>
       </c>
       <c r="G66">
-        <v>55.665586400000002</v>
-      </c>
-      <c r="H66">
-        <v>37.616878024335477</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67">
-        <v>558</v>
+        <v>5580000</v>
       </c>
       <c r="D67">
         <v>71943</v>
       </c>
       <c r="E67">
-        <v>12893.01</v>
-      </c>
-      <c r="F67" t="s">
-        <v>8</v>
+        <v>55.6973427</v>
+      </c>
+      <c r="F67">
+        <v>37.942270139257282</v>
       </c>
       <c r="G67">
-        <v>55.6973427</v>
-      </c>
-      <c r="H67">
-        <v>37.942270139257282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68">
-        <v>757</v>
+        <v>7570000</v>
       </c>
       <c r="D68">
         <v>45294</v>
       </c>
       <c r="E68">
-        <v>5983.36</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
+        <v>55.732842249999997</v>
+      </c>
+      <c r="F68">
+        <v>37.729087847260118</v>
       </c>
       <c r="G68">
-        <v>55.732842249999997</v>
-      </c>
-      <c r="H68">
-        <v>37.729087847260118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69">
-        <v>445</v>
+        <v>4450000</v>
       </c>
       <c r="D69">
         <v>98415</v>
       </c>
       <c r="E69">
-        <v>22115.73</v>
-      </c>
-      <c r="F69" t="s">
-        <v>8</v>
+        <v>55.747847700000001</v>
+      </c>
+      <c r="F69">
+        <v>37.807597346917532</v>
       </c>
       <c r="G69">
-        <v>55.747847700000001</v>
-      </c>
-      <c r="H69">
-        <v>37.807597346917532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70">
-        <v>360</v>
+        <v>3600000</v>
       </c>
       <c r="D70">
         <v>107907</v>
       </c>
       <c r="E70">
-        <v>29974.17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>8</v>
+        <v>55.739856900000007</v>
+      </c>
+      <c r="F70">
+        <v>37.860309689176319</v>
       </c>
       <c r="G70">
-        <v>55.739856900000007</v>
-      </c>
-      <c r="H70">
-        <v>37.860309689176319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71">
-        <v>848</v>
+        <v>8480000</v>
       </c>
       <c r="D71">
         <v>121553</v>
       </c>
       <c r="E71">
-        <v>14334.08</v>
-      </c>
-      <c r="F71" t="s">
-        <v>8</v>
+        <v>55.646096700000001</v>
+      </c>
+      <c r="F71">
+        <v>37.35311699406779</v>
       </c>
       <c r="G71">
-        <v>55.646096700000001</v>
-      </c>
-      <c r="H71">
-        <v>37.35311699406779</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72">
-        <v>611</v>
+        <v>6110000</v>
       </c>
       <c r="D72">
         <v>86793</v>
       </c>
       <c r="E72">
-        <v>14205.07</v>
-      </c>
-      <c r="F72" t="s">
-        <v>8</v>
+        <v>55.657642550000013</v>
+      </c>
+      <c r="F72">
+        <v>37.520458948296202</v>
       </c>
       <c r="G72">
-        <v>55.657642550000013</v>
-      </c>
-      <c r="H72">
-        <v>37.520458948296202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73">
-        <v>767</v>
+        <v>7670000</v>
       </c>
       <c r="D73">
         <v>132265</v>
       </c>
       <c r="E73">
-        <v>17244.46</v>
-      </c>
-      <c r="F73" t="s">
-        <v>8</v>
+        <v>55.620865549999998</v>
+      </c>
+      <c r="F73">
+        <v>37.703759388055339</v>
       </c>
       <c r="G73">
-        <v>55.620865549999998</v>
-      </c>
-      <c r="H73">
-        <v>37.703759388055339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74">
-        <v>694</v>
+        <v>6940000</v>
       </c>
       <c r="D74">
         <v>147789</v>
       </c>
       <c r="E74">
-        <v>21295.24</v>
-      </c>
-      <c r="F74" t="s">
-        <v>8</v>
+        <v>55.603957450000003</v>
+      </c>
+      <c r="F74">
+        <v>37.726929998191949</v>
       </c>
       <c r="G74">
-        <v>55.603957450000003</v>
-      </c>
-      <c r="H74">
-        <v>37.726929998191949</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75">
-        <v>1246</v>
+        <v>12460000</v>
       </c>
       <c r="D75">
         <v>63514</v>
       </c>
       <c r="E75">
-        <v>5097.43</v>
-      </c>
-      <c r="F75" t="s">
-        <v>8</v>
+        <v>55.8210768</v>
+      </c>
+      <c r="F75">
+        <v>37.619118999999998</v>
       </c>
       <c r="G75">
-        <v>55.8210768</v>
-      </c>
-      <c r="H75">
-        <v>37.619118999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C76">
-        <v>1018</v>
+        <v>10180000</v>
       </c>
       <c r="D76">
         <v>185488</v>
       </c>
       <c r="E76">
-        <v>18220.830000000002</v>
-      </c>
-      <c r="F76" t="s">
-        <v>8</v>
+        <v>55.863422100000001</v>
+      </c>
+      <c r="F76">
+        <v>37.603802429144281</v>
       </c>
       <c r="G76">
-        <v>55.863422100000001</v>
-      </c>
-      <c r="H76">
-        <v>37.603802429144281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77">
-        <v>1754</v>
+        <v>17540000</v>
       </c>
       <c r="D77">
         <v>130742</v>
       </c>
       <c r="E77">
-        <v>7453.93</v>
-      </c>
-      <c r="F77" t="s">
-        <v>8</v>
+        <v>55.692105099999999</v>
+      </c>
+      <c r="F77">
+        <v>37.44019185337838</v>
       </c>
       <c r="G77">
-        <v>55.692105099999999</v>
-      </c>
-      <c r="H77">
-        <v>37.44019185337838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78">
-        <v>973</v>
+        <v>9730000</v>
       </c>
       <c r="D78">
         <v>140968</v>
       </c>
       <c r="E78">
-        <v>14487.98</v>
-      </c>
-      <c r="F78" t="s">
-        <v>8</v>
+        <v>55.751069049999998</v>
+      </c>
+      <c r="F78">
+        <v>37.753162949048281</v>
       </c>
       <c r="G78">
-        <v>55.751069049999998</v>
-      </c>
-      <c r="H78">
-        <v>37.753162949048281</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C79">
-        <v>1789</v>
+        <v>17890000</v>
       </c>
       <c r="D79">
         <v>86587</v>
       </c>
       <c r="E79">
-        <v>4839.97</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
+        <v>55.684054150000001</v>
+      </c>
+      <c r="F79">
+        <v>37.722772724224271</v>
       </c>
       <c r="G79">
-        <v>55.684054150000001</v>
-      </c>
-      <c r="H79">
-        <v>37.722772724224271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C80">
-        <v>1290</v>
+        <v>12900000</v>
       </c>
       <c r="D80">
         <v>59402</v>
       </c>
       <c r="E80">
-        <v>4604.8100000000004</v>
-      </c>
-      <c r="F80" t="s">
-        <v>8</v>
+        <v>55.825025400000001</v>
+      </c>
+      <c r="F80">
+        <v>37.450400553454507</v>
       </c>
       <c r="G80">
-        <v>55.825025400000001</v>
-      </c>
-      <c r="H80">
-        <v>37.450400553454507</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81">
-        <v>561</v>
+        <v>5610000</v>
       </c>
       <c r="D81">
         <v>91503</v>
       </c>
       <c r="E81">
-        <v>16310.7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>8</v>
+        <v>55.796341949999999</v>
+      </c>
+      <c r="F81">
+        <v>37.723872613445543</v>
       </c>
       <c r="G81">
-        <v>55.796341949999999</v>
-      </c>
-      <c r="H81">
-        <v>37.723872613445543</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82">
-        <v>1170</v>
+        <v>11700000</v>
       </c>
       <c r="D82">
         <v>128062</v>
       </c>
       <c r="E82">
-        <v>10945.47</v>
-      </c>
-      <c r="F82" t="s">
-        <v>8</v>
+        <v>55.7622146</v>
+      </c>
+      <c r="F82">
+        <v>37.560657599999999</v>
       </c>
       <c r="G82">
-        <v>55.7622146</v>
-      </c>
-      <c r="H82">
-        <v>37.560657599999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C83">
-        <v>465</v>
+        <v>4650000</v>
       </c>
       <c r="D83">
         <v>63659</v>
       </c>
       <c r="E83">
-        <v>13690.11</v>
-      </c>
-      <c r="F83" t="s">
-        <v>8</v>
+        <v>55.675415200000003</v>
+      </c>
+      <c r="F83">
+        <v>37.500330230797729</v>
       </c>
       <c r="G83">
-        <v>55.675415200000003</v>
-      </c>
-      <c r="H83">
-        <v>37.500330230797729</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>1854</v>
+        <v>18540000</v>
       </c>
       <c r="D84">
         <v>141610</v>
       </c>
       <c r="E84">
-        <v>7638.08</v>
-      </c>
-      <c r="F84" t="s">
-        <v>8</v>
+        <v>55.7018348</v>
+      </c>
+      <c r="F84">
+        <v>37.504106899999996</v>
       </c>
       <c r="G84">
-        <v>55.7018348</v>
-      </c>
-      <c r="H84">
-        <v>37.504106899999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85">
-        <v>354</v>
+        <v>3540000</v>
       </c>
       <c r="D85">
         <v>40082</v>
       </c>
       <c r="E85">
-        <v>11322.6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>8</v>
+        <v>55.835012450000001</v>
+      </c>
+      <c r="F85">
+        <v>37.652476019428633</v>
       </c>
       <c r="G85">
-        <v>55.835012450000001</v>
-      </c>
-      <c r="H85">
-        <v>37.652476019428633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86">
-        <v>649</v>
+        <v>6490000</v>
       </c>
       <c r="D86">
         <v>109733</v>
       </c>
       <c r="E86">
-        <v>16908.009999999998</v>
-      </c>
-      <c r="F86" t="s">
-        <v>8</v>
+        <v>55.722183399999999</v>
+      </c>
+      <c r="F86">
+        <v>37.768830299999998</v>
       </c>
       <c r="G86">
-        <v>55.722183399999999</v>
-      </c>
-      <c r="H86">
-        <v>37.768830299999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>813</v>
+        <v>8130000</v>
       </c>
       <c r="D87">
         <v>34472</v>
       </c>
       <c r="E87">
-        <v>4240.1000000000004</v>
-      </c>
-      <c r="F87" t="s">
-        <v>8</v>
+        <v>55.992982699999999</v>
+      </c>
+      <c r="F87">
+        <v>37.227293099999997</v>
       </c>
       <c r="G87">
-        <v>55.9887972</v>
-      </c>
-      <c r="H87">
-        <v>37.221880800000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88">
-        <v>270</v>
+        <v>2700000</v>
       </c>
       <c r="D88">
         <v>59287</v>
       </c>
       <c r="E88">
-        <v>21958.15</v>
-      </c>
-      <c r="F88" t="s">
-        <v>8</v>
+        <v>55.799768899999997</v>
+      </c>
+      <c r="F88">
+        <v>37.570833299999997</v>
       </c>
       <c r="G88">
-        <v>55.799768899999997</v>
-      </c>
-      <c r="H88">
-        <v>37.570833299999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89">
-        <v>441</v>
+        <v>4410000</v>
       </c>
       <c r="D89">
         <v>62847</v>
       </c>
       <c r="E89">
-        <v>14251.02</v>
-      </c>
-      <c r="F89" t="s">
-        <v>8</v>
+        <v>55.853104849999987</v>
+      </c>
+      <c r="F89">
+        <v>37.646790602183543</v>
       </c>
       <c r="G89">
-        <v>55.853104849999987</v>
-      </c>
-      <c r="H89">
-        <v>37.646790602183543</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90">
-        <v>913</v>
+        <v>9130000</v>
       </c>
       <c r="D90">
         <v>95882</v>
       </c>
       <c r="E90">
-        <v>10501.86</v>
-      </c>
-      <c r="F90" t="s">
-        <v>8</v>
+        <v>55.568102349999997</v>
+      </c>
+      <c r="F90">
+        <v>37.574331942555482</v>
       </c>
       <c r="G90">
-        <v>55.568102349999997</v>
-      </c>
-      <c r="H90">
-        <v>37.574331942555482</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C91">
-        <v>420</v>
+        <v>4200000</v>
       </c>
       <c r="D91">
         <v>87614</v>
       </c>
       <c r="E91">
-        <v>20860.48</v>
-      </c>
-      <c r="F91" t="s">
-        <v>8</v>
+        <v>55.806578700000003</v>
+      </c>
+      <c r="F91">
+        <v>37.798637499999998</v>
       </c>
       <c r="G91">
-        <v>55.80861075</v>
-      </c>
-      <c r="H91">
-        <v>37.807905358697752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C92">
-        <v>566</v>
+        <v>5660000</v>
       </c>
       <c r="D92">
         <v>127819</v>
       </c>
       <c r="E92">
-        <v>22582.86</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
+        <v>55.887221599999997</v>
+      </c>
+      <c r="F92">
+        <v>37.651769721690911</v>
       </c>
       <c r="G92">
-        <v>55.887221599999997</v>
-      </c>
-      <c r="H92">
-        <v>37.651769721690911</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C93">
-        <v>940</v>
+        <v>9400000</v>
       </c>
       <c r="D93">
         <v>165762</v>
       </c>
       <c r="E93">
-        <v>17634.259999999998</v>
-      </c>
-      <c r="F93" t="s">
-        <v>8</v>
+        <v>55.863656200000001</v>
+      </c>
+      <c r="F93">
+        <v>37.428226145244707</v>
       </c>
       <c r="G93">
-        <v>55.863656200000001</v>
-      </c>
-      <c r="H93">
-        <v>37.428226145244707</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94">
-        <v>1029</v>
+        <v>10290000</v>
       </c>
       <c r="D94">
         <v>38551</v>
       </c>
       <c r="E94">
-        <v>3746.45</v>
-      </c>
-      <c r="F94" t="s">
-        <v>8</v>
+        <v>55.932539749999997</v>
+      </c>
+      <c r="F94">
+        <v>37.543035589953298</v>
       </c>
       <c r="G94">
-        <v>55.932539749999997</v>
-      </c>
-      <c r="H94">
-        <v>37.543035589953298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C95">
-        <v>1040</v>
+        <v>10400000</v>
       </c>
       <c r="D95">
         <v>40218</v>
       </c>
       <c r="E95">
-        <v>3867.12</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
+        <v>56.001756700000001</v>
+      </c>
+      <c r="F95">
+        <v>37.168897800000003</v>
       </c>
       <c r="G95">
-        <v>56.001756700000001</v>
-      </c>
-      <c r="H95">
-        <v>37.168897800000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96">
-        <v>372</v>
+        <v>3720000</v>
       </c>
       <c r="D96">
         <v>59507</v>
       </c>
       <c r="E96">
-        <v>15996.51</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
+        <v>55.805006300000002</v>
+      </c>
+      <c r="F96">
+        <v>37.505624400000002</v>
       </c>
       <c r="G96">
-        <v>55.805006300000002</v>
-      </c>
-      <c r="H96">
-        <v>37.505624400000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97">
-        <v>784</v>
+        <v>7840000</v>
       </c>
       <c r="D97">
         <v>92126</v>
       </c>
       <c r="E97">
-        <v>11750.77</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
+        <v>55.772824700000001</v>
+      </c>
+      <c r="F97">
+        <v>37.73014415150044</v>
       </c>
       <c r="G97">
-        <v>55.772824700000001</v>
-      </c>
-      <c r="H97">
-        <v>37.73014415150044</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C98">
-        <v>1028</v>
+        <v>10280000</v>
       </c>
       <c r="D98">
         <v>61487</v>
       </c>
       <c r="E98">
-        <v>5981.23</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
+        <v>55.803106550000003</v>
+      </c>
+      <c r="F98">
+        <v>37.676785546510622</v>
       </c>
       <c r="G98">
-        <v>55.803106550000003</v>
-      </c>
-      <c r="H98">
-        <v>37.676785546510622</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C99">
-        <v>1129</v>
+        <v>11290000</v>
       </c>
       <c r="D99">
         <v>126456</v>
       </c>
       <c r="E99">
-        <v>11200.71</v>
-      </c>
-      <c r="F99" t="s">
-        <v>8</v>
+        <v>55.654438450000001</v>
+      </c>
+      <c r="F99">
+        <v>37.39257394460023</v>
       </c>
       <c r="G99">
-        <v>55.654438450000001</v>
-      </c>
-      <c r="H99">
-        <v>37.39257394460023</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C100">
-        <v>381</v>
+        <v>3810000</v>
       </c>
       <c r="D100">
         <v>31053</v>
       </c>
       <c r="E100">
-        <v>8150.39</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
+        <v>55.980735350000003</v>
+      </c>
+      <c r="F100">
+        <v>37.196716955691457</v>
       </c>
       <c r="G100">
-        <v>55.980735350000003</v>
-      </c>
-      <c r="H100">
-        <v>37.196716955691457</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C101">
-        <v>1684</v>
+        <v>16840000</v>
       </c>
       <c r="D101">
         <v>160791</v>
       </c>
       <c r="E101">
-        <v>9548.16</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
+        <v>55.801335100000003</v>
+      </c>
+      <c r="F101">
+        <v>37.403052500000001</v>
       </c>
       <c r="G101">
-        <v>55.801335100000003</v>
-      </c>
-      <c r="H101">
-        <v>37.403052500000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C102">
-        <v>801</v>
+        <v>8010000</v>
       </c>
       <c r="D102">
         <v>123398</v>
       </c>
       <c r="E102">
-        <v>15405.49</v>
-      </c>
-      <c r="F102" t="s">
-        <v>8</v>
+        <v>55.741572300000001</v>
+      </c>
+      <c r="F102">
+        <v>37.667062600000001</v>
       </c>
       <c r="G102">
-        <v>55.741572300000001</v>
-      </c>
-      <c r="H102">
-        <v>37.667062600000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C103">
-        <v>727</v>
+        <v>7270000</v>
       </c>
       <c r="D103">
         <v>77864</v>
       </c>
       <c r="E103">
-        <v>10710.32</v>
-      </c>
-      <c r="F103" t="s">
-        <v>8</v>
+        <v>55.7691461</v>
+      </c>
+      <c r="F103">
+        <v>37.608835499999998</v>
       </c>
       <c r="G103">
-        <v>55.7691461</v>
-      </c>
-      <c r="H103">
-        <v>37.608835499999998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C104">
-        <v>592</v>
+        <v>5920000</v>
       </c>
       <c r="D104">
         <v>105267</v>
       </c>
       <c r="E104">
-        <v>17781.59</v>
-      </c>
-      <c r="F104" t="s">
-        <v>8</v>
+        <v>55.703181100000002</v>
+      </c>
+      <c r="F104">
+        <v>37.740591799999997</v>
       </c>
       <c r="G104">
-        <v>55.703181100000002</v>
-      </c>
-      <c r="H104">
-        <v>37.740591799999997</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C105">
-        <v>750</v>
+        <v>7500000</v>
       </c>
       <c r="D105">
         <v>134321</v>
       </c>
       <c r="E105">
-        <v>17909.47</v>
-      </c>
-      <c r="F105" t="s">
-        <v>8</v>
+        <v>55.625932300000002</v>
+      </c>
+      <c r="F105">
+        <v>37.493834200000002</v>
       </c>
       <c r="G105">
-        <v>55.625932300000002</v>
-      </c>
-      <c r="H105">
-        <v>37.493834200000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C106">
-        <v>1043</v>
+        <v>10430000</v>
       </c>
       <c r="D106">
         <v>83712</v>
       </c>
       <c r="E106">
-        <v>8026.08</v>
-      </c>
-      <c r="F106" t="s">
-        <v>8</v>
+        <v>55.825816600000003</v>
+      </c>
+      <c r="F106">
+        <v>37.557743899999998</v>
       </c>
       <c r="G106">
-        <v>55.825816600000003</v>
-      </c>
-      <c r="H106">
-        <v>37.557743899999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107">
-        <v>1127</v>
+        <v>11270000</v>
       </c>
       <c r="D107">
         <v>124167</v>
       </c>
       <c r="E107">
-        <v>11017.48</v>
-      </c>
-      <c r="F107" t="s">
-        <v>8</v>
+        <v>55.660321699999997</v>
+      </c>
+      <c r="F107">
+        <v>37.468222599999997</v>
       </c>
       <c r="G107">
-        <v>55.660321699999997</v>
-      </c>
-      <c r="H107">
-        <v>37.468222599999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C108">
-        <v>962</v>
+        <v>9620000</v>
       </c>
       <c r="D108">
         <v>94323</v>
       </c>
       <c r="E108">
-        <v>9804.89</v>
-      </c>
-      <c r="F108" t="s">
-        <v>8</v>
+        <v>55.747054599999998</v>
+      </c>
+      <c r="F108">
+        <v>37.492181299999999</v>
       </c>
       <c r="G108">
-        <v>55.747054599999998</v>
-      </c>
-      <c r="H108">
-        <v>37.492181299999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109">
-        <v>696</v>
+        <v>6960000</v>
       </c>
       <c r="D109">
         <v>115128</v>
       </c>
       <c r="E109">
-        <v>16541.38</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
+        <v>55.728899499999997</v>
+      </c>
+      <c r="F109">
+        <v>37.467337899999997</v>
       </c>
       <c r="G109">
-        <v>55.728899499999997</v>
-      </c>
-      <c r="H109">
-        <v>37.467337899999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C110">
-        <v>1008</v>
+        <v>10080000</v>
       </c>
       <c r="D110">
         <v>109218</v>
       </c>
       <c r="E110">
-        <v>10835.12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
+        <v>55.729228999999997</v>
+      </c>
+      <c r="F110">
+        <v>37.572948400000001</v>
       </c>
       <c r="G110">
-        <v>55.729228999999997</v>
-      </c>
-      <c r="H110">
-        <v>37.572948400000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C111">
-        <v>573</v>
+        <v>5730000</v>
       </c>
       <c r="D111">
         <v>89018</v>
       </c>
       <c r="E111">
-        <v>15535.43</v>
-      </c>
-      <c r="F111" t="s">
-        <v>8</v>
+        <v>55.8693575</v>
+      </c>
+      <c r="F111">
+        <v>37.488795400000001</v>
       </c>
       <c r="G111">
-        <v>55.8693575</v>
-      </c>
-      <c r="H111">
-        <v>37.488795400000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C112">
-        <v>1718</v>
+        <v>17180000</v>
       </c>
       <c r="D112">
         <v>173615</v>
       </c>
       <c r="E112">
-        <v>10105.65</v>
-      </c>
-      <c r="F112" t="s">
-        <v>8</v>
+        <v>55.778756799999996</v>
+      </c>
+      <c r="F112">
+        <v>37.480074299999998</v>
       </c>
       <c r="G112">
-        <v>55.778756799999996</v>
-      </c>
-      <c r="H112">
-        <v>37.480074299999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C113">
-        <v>988</v>
+        <v>9880000</v>
       </c>
       <c r="D113">
         <v>72676</v>
       </c>
       <c r="E113">
-        <v>7355.87</v>
-      </c>
-      <c r="F113" t="s">
-        <v>8</v>
+        <v>55.778930899999999</v>
+      </c>
+      <c r="F113">
+        <v>37.527172299999997</v>
       </c>
       <c r="G113">
-        <v>55.778930899999999</v>
-      </c>
-      <c r="H113">
-        <v>37.527172299999997</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114">
-        <v>843</v>
+        <v>8430000</v>
       </c>
       <c r="D114">
         <v>129138</v>
       </c>
       <c r="E114">
-        <v>15318.86</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
+        <v>55.6265942</v>
+      </c>
+      <c r="F114">
+        <v>37.667022600000003</v>
       </c>
       <c r="G114">
-        <v>55.6265942</v>
-      </c>
-      <c r="H114">
-        <v>37.667022600000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115">
-        <v>552</v>
+        <v>5520000</v>
       </c>
       <c r="D115">
         <v>110753</v>
       </c>
       <c r="E115">
-        <v>20063.95</v>
-      </c>
-      <c r="F115" t="s">
-        <v>8</v>
+        <v>55.665150699999998</v>
+      </c>
+      <c r="F115">
+        <v>37.564751555853967</v>
       </c>
       <c r="G115">
-        <v>55.665150699999998</v>
-      </c>
-      <c r="H115">
-        <v>37.564751555853967</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C116">
-        <v>540</v>
+        <v>5400000</v>
       </c>
       <c r="D116">
         <v>114548</v>
       </c>
       <c r="E116">
-        <v>21212.59</v>
-      </c>
-      <c r="F116" t="s">
-        <v>8</v>
+        <v>55.632936000000001</v>
+      </c>
+      <c r="F116">
+        <v>37.602088139480109</v>
       </c>
       <c r="G116">
-        <v>55.632936000000001</v>
-      </c>
-      <c r="H116">
-        <v>37.602088139480109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C117">
-        <v>652</v>
+        <v>6520000</v>
       </c>
       <c r="D117">
         <v>117092</v>
       </c>
       <c r="E117">
-        <v>17958.900000000001</v>
-      </c>
-      <c r="F117" t="s">
-        <v>8</v>
+        <v>55.615158100000002</v>
+      </c>
+      <c r="F117">
+        <v>37.603273399999999</v>
       </c>
       <c r="G117">
-        <v>55.615158100000002</v>
-      </c>
-      <c r="H117">
-        <v>37.603273399999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C118">
-        <v>938</v>
+        <v>9380000</v>
       </c>
       <c r="D118">
         <v>151726</v>
       </c>
       <c r="E118">
-        <v>16175.48</v>
-      </c>
-      <c r="F118" t="s">
-        <v>8</v>
+        <v>55.589835200000003</v>
+      </c>
+      <c r="F118">
+        <v>37.595748100000002</v>
       </c>
       <c r="G118">
-        <v>55.589835200000003</v>
-      </c>
-      <c r="H118">
-        <v>37.595748100000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C119">
-        <v>769</v>
+        <v>7690000</v>
       </c>
       <c r="D119">
         <v>111203</v>
       </c>
       <c r="E119">
-        <v>14460.73</v>
-      </c>
-      <c r="F119" t="s">
-        <v>8</v>
+        <v>55.800572299999999</v>
+      </c>
+      <c r="F119">
+        <v>37.473055199999997</v>
       </c>
       <c r="G119">
-        <v>55.800572299999999</v>
-      </c>
-      <c r="H119">
-        <v>37.473055199999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C120">
-        <v>2554</v>
+        <v>25540000</v>
       </c>
       <c r="D120">
         <v>210676</v>
       </c>
       <c r="E120">
-        <v>8248.86</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
+        <v>55.5412721</v>
+      </c>
+      <c r="F120">
+        <v>37.532539200000002</v>
       </c>
       <c r="G120">
-        <v>55.5412721</v>
-      </c>
-      <c r="H120">
-        <v>37.532539200000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C121">
-        <v>388</v>
+        <v>3880000</v>
       </c>
       <c r="D121">
         <v>85698</v>
       </c>
       <c r="E121">
-        <v>22087.11</v>
-      </c>
-      <c r="F121" t="s">
-        <v>8</v>
+        <v>55.874826200000001</v>
+      </c>
+      <c r="F121">
+        <v>37.633893899999997</v>
       </c>
       <c r="G121">
-        <v>55.874826200000001</v>
-      </c>
-      <c r="H121">
-        <v>37.633893899999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C122">
-        <v>794</v>
+        <v>7940000</v>
       </c>
       <c r="D122">
         <v>109218</v>
       </c>
       <c r="E122">
-        <v>13755.42</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
+        <v>55.843858099999999</v>
+      </c>
+      <c r="F122">
+        <v>37.431540599999998</v>
       </c>
       <c r="G122">
-        <v>55.843858099999999</v>
-      </c>
-      <c r="H122">
-        <v>37.431540599999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C123">
-        <v>453</v>
+        <v>4530000</v>
       </c>
       <c r="D123">
         <v>74729</v>
       </c>
       <c r="E123">
-        <v>16496.47</v>
-      </c>
-      <c r="F123" t="s">
-        <v>8</v>
+        <v>55.714477350000003</v>
+      </c>
+      <c r="F123">
+        <v>37.672120792844083</v>
       </c>
       <c r="G123">
-        <v>55.714477350000003</v>
-      </c>
-      <c r="H123">
-        <v>37.672120792844083</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C124">
-        <v>480</v>
+        <v>4800000</v>
       </c>
       <c r="D124">
         <v>27672</v>
       </c>
       <c r="E124">
-        <v>5765</v>
-      </c>
-      <c r="F124" t="s">
-        <v>8</v>
+        <v>55.738374100000001</v>
+      </c>
+      <c r="F124">
+        <v>37.616912800000001</v>
       </c>
       <c r="G124">
-        <v>55.738374100000001</v>
-      </c>
-      <c r="H124">
-        <v>37.616912800000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C125">
-        <v>799</v>
+        <v>7990000</v>
       </c>
       <c r="D125">
         <v>98108</v>
       </c>
       <c r="E125">
-        <v>12278.85</v>
-      </c>
-      <c r="F125" t="s">
-        <v>8</v>
+        <v>55.861432000000001</v>
+      </c>
+      <c r="F125">
+        <v>37.693572400000001</v>
       </c>
       <c r="G125">
-        <v>55.861432000000001</v>
-      </c>
-      <c r="H125">
-        <v>37.693572400000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C126">
-        <v>2537</v>
+        <v>25370000</v>
       </c>
       <c r="D126">
         <v>177901</v>
       </c>
       <c r="E126">
-        <v>7012.26</v>
-      </c>
-      <c r="F126" t="s">
-        <v>8</v>
+        <v>55.606659999999998</v>
+      </c>
+      <c r="F126">
+        <v>37.534007000000003</v>
       </c>
       <c r="G126">
-        <v>55.606659999999998</v>
-      </c>
-      <c r="H126">
-        <v>37.534007000000003</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C127">
-        <v>2560</v>
+        <v>25600000</v>
       </c>
       <c r="D127">
         <v>7815</v>
       </c>
       <c r="E127">
-        <v>305.27</v>
-      </c>
-      <c r="F127" t="s">
-        <v>134</v>
+        <v>55.633132600000003</v>
+      </c>
+      <c r="F127">
+        <v>37.294017156052853</v>
       </c>
       <c r="G127">
-        <v>55.633132600000003</v>
-      </c>
-      <c r="H127">
-        <v>37.294017156052853</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C128">
-        <v>20626</v>
+        <v>206260000</v>
       </c>
       <c r="D128">
         <v>8891</v>
       </c>
       <c r="E128">
-        <v>43.11</v>
-      </c>
-      <c r="F128" t="s">
-        <v>134</v>
+        <v>55.321132400000003</v>
+      </c>
+      <c r="F128">
+        <v>37.121986757846337</v>
       </c>
       <c r="G128">
-        <v>55.321132400000003</v>
-      </c>
-      <c r="H128">
-        <v>37.121986757846337</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C129">
-        <v>2477</v>
+        <v>24770000</v>
       </c>
       <c r="D129">
         <v>9822</v>
       </c>
       <c r="E129">
-        <v>396.53</v>
-      </c>
-      <c r="F129" t="s">
-        <v>134</v>
+        <v>55.514144700000003</v>
+      </c>
+      <c r="F129">
+        <v>37.445879530400283</v>
       </c>
       <c r="G129">
-        <v>55.514144700000003</v>
-      </c>
-      <c r="H129">
-        <v>37.445879530400283</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C130">
-        <v>5296</v>
+        <v>52960000</v>
       </c>
       <c r="D130">
         <v>22413</v>
       </c>
       <c r="E130">
-        <v>423.21</v>
-      </c>
-      <c r="F130" t="s">
-        <v>134</v>
+        <v>55.501368800000002</v>
+      </c>
+      <c r="F130">
+        <v>37.362555452363473</v>
       </c>
       <c r="G130">
-        <v>55.501368800000002</v>
-      </c>
-      <c r="H130">
-        <v>37.362555452363473</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C131">
-        <v>5650</v>
+        <v>56500000</v>
       </c>
       <c r="D131">
         <v>13968</v>
       </c>
       <c r="E131">
-        <v>247.22</v>
-      </c>
-      <c r="F131" t="s">
-        <v>134</v>
+        <v>55.385652999999998</v>
+      </c>
+      <c r="F131">
+        <v>36.886869556205568</v>
       </c>
       <c r="G131">
-        <v>55.385652999999998</v>
-      </c>
-      <c r="H131">
-        <v>36.886869556205568</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C132">
-        <v>5830</v>
+        <v>58300000</v>
       </c>
       <c r="D132">
         <v>4116</v>
       </c>
       <c r="E132">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="F132" t="s">
-        <v>134</v>
+        <v>55.294612299999997</v>
+      </c>
+      <c r="F132">
+        <v>37.323994890429631</v>
       </c>
       <c r="G132">
-        <v>55.294612299999997</v>
-      </c>
-      <c r="H132">
-        <v>37.323994890429631</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C133">
-        <v>828</v>
+        <v>8280000</v>
       </c>
       <c r="D133">
         <v>19045</v>
       </c>
       <c r="E133">
-        <v>2300.12</v>
-      </c>
-      <c r="F133" t="s">
-        <v>134</v>
+        <v>55.603102849999999</v>
+      </c>
+      <c r="F133">
+        <v>37.159579389380873</v>
       </c>
       <c r="G133">
-        <v>55.603102849999999</v>
-      </c>
-      <c r="H133">
-        <v>37.159579389380873</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C134">
-        <v>8778</v>
+        <v>87780000</v>
       </c>
       <c r="D134">
         <v>4901</v>
       </c>
       <c r="E134">
-        <v>55.83</v>
-      </c>
-      <c r="F134" t="s">
-        <v>134</v>
+        <v>55.417192849999999</v>
+      </c>
+      <c r="F134">
+        <v>37.272232499067108</v>
       </c>
       <c r="G134">
-        <v>55.417192849999999</v>
-      </c>
-      <c r="H134">
-        <v>37.272232499067108</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C135">
-        <v>5063</v>
+        <v>50630000</v>
       </c>
       <c r="D135">
         <v>7082</v>
       </c>
       <c r="E135">
-        <v>139.88</v>
-      </c>
-      <c r="F135" t="s">
-        <v>134</v>
+        <v>55.58191455</v>
+      </c>
+      <c r="F135">
+        <v>37.178948977628707</v>
       </c>
       <c r="G135">
-        <v>55.58191455</v>
-      </c>
-      <c r="H135">
-        <v>37.178948977628707</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C136">
-        <v>6347</v>
+        <v>63470000</v>
       </c>
       <c r="D136">
         <v>5483</v>
       </c>
       <c r="E136">
-        <v>86.39</v>
-      </c>
-      <c r="F136" t="s">
-        <v>134</v>
+        <v>55.402711850000003</v>
+      </c>
+      <c r="F136">
+        <v>37.152744036721487</v>
       </c>
       <c r="G136">
-        <v>55.402711850000003</v>
-      </c>
-      <c r="H136">
-        <v>37.152744036721487</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C137">
-        <v>4060</v>
+        <v>40600000</v>
       </c>
       <c r="D137">
         <v>61224</v>
       </c>
       <c r="E137">
-        <v>1507.98</v>
-      </c>
-      <c r="F137" t="s">
-        <v>134</v>
+        <v>55.618268899999997</v>
+      </c>
+      <c r="F137">
+        <v>37.385838049451998</v>
       </c>
       <c r="G137">
-        <v>55.618268899999997</v>
-      </c>
-      <c r="H137">
-        <v>37.385838049451998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C138">
-        <v>641</v>
+        <v>6410000</v>
       </c>
       <c r="D138">
         <v>20736</v>
       </c>
       <c r="E138">
-        <v>3234.95</v>
-      </c>
-      <c r="F138" t="s">
-        <v>134</v>
+        <v>55.618726549999998</v>
+      </c>
+      <c r="F138">
+        <v>37.469286079893017</v>
       </c>
       <c r="G138">
-        <v>55.618726549999998</v>
-      </c>
-      <c r="H138">
-        <v>37.469286079893017</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C139">
-        <v>15675</v>
+        <v>156750000</v>
       </c>
       <c r="D139">
         <v>6943</v>
       </c>
       <c r="E139">
-        <v>44.29</v>
-      </c>
-      <c r="F139" t="s">
-        <v>134</v>
+        <v>55.437925849999999</v>
+      </c>
+      <c r="F139">
+        <v>36.999718175973811</v>
       </c>
       <c r="G139">
-        <v>55.437925849999999</v>
-      </c>
-      <c r="H139">
-        <v>36.999718175973811</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C140">
-        <v>11894</v>
+        <v>118940000</v>
       </c>
       <c r="D140">
         <v>8481</v>
       </c>
       <c r="E140">
-        <v>71.3</v>
-      </c>
-      <c r="F140" t="s">
-        <v>134</v>
+        <v>55.50190525</v>
+      </c>
+      <c r="F140">
+        <v>37.212795047503469</v>
       </c>
       <c r="G140">
-        <v>55.50190525</v>
-      </c>
-      <c r="H140">
-        <v>37.212795047503469</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C141">
-        <v>17595</v>
+        <v>175950000</v>
       </c>
       <c r="D141">
         <v>3915</v>
       </c>
       <c r="E141">
-        <v>22.25</v>
-      </c>
-      <c r="F141" t="s">
-        <v>134</v>
+        <v>55.229093300000002</v>
+      </c>
+      <c r="F141">
+        <v>37.05519465465914</v>
       </c>
       <c r="G141">
-        <v>55.229093300000002</v>
-      </c>
-      <c r="H141">
-        <v>37.05519465465914</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C142">
-        <v>4141</v>
+        <v>41410000</v>
       </c>
       <c r="D142">
         <v>20587</v>
       </c>
       <c r="E142">
-        <v>497.15</v>
-      </c>
-      <c r="F142" t="s">
-        <v>134</v>
+        <v>55.478723100000003</v>
+      </c>
+      <c r="F142">
+        <v>37.505779026145383</v>
       </c>
       <c r="G142">
-        <v>55.478723100000003</v>
-      </c>
-      <c r="H142">
-        <v>37.505779026145383</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C143">
-        <v>6707</v>
+        <v>67070000</v>
       </c>
       <c r="D143">
         <v>30651</v>
       </c>
       <c r="E143">
-        <v>457</v>
-      </c>
-      <c r="F143" t="s">
-        <v>134</v>
+        <v>55.574020400000002</v>
+      </c>
+      <c r="F143">
+        <v>37.456581043040323</v>
       </c>
       <c r="G143">
-        <v>55.574020400000002</v>
-      </c>
-      <c r="H143">
-        <v>37.456581043040323</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C144">
-        <v>1633</v>
+        <v>16330000</v>
       </c>
       <c r="D144">
         <v>61079</v>
       </c>
       <c r="E144">
-        <v>3740.29</v>
-      </c>
-      <c r="F144" t="s">
-        <v>152</v>
+        <v>55.479412250000003</v>
+      </c>
+      <c r="F144">
+        <v>37.298030521946693</v>
       </c>
       <c r="G144">
-        <v>55.479412250000003</v>
-      </c>
-      <c r="H144">
-        <v>37.298030521946693</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C145">
-        <v>3577</v>
+        <v>35770000</v>
       </c>
       <c r="D145">
         <v>7026</v>
       </c>
       <c r="E145">
-        <v>196.42</v>
-      </c>
-      <c r="F145" t="s">
-        <v>134</v>
+        <v>55.568848549999998</v>
+      </c>
+      <c r="F145">
+        <v>37.30956742236274</v>
       </c>
       <c r="G145">
-        <v>55.568848549999998</v>
-      </c>
-      <c r="H145">
-        <v>37.30956742236274</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C146">
-        <v>8606</v>
+        <v>86060000</v>
       </c>
       <c r="D146">
         <v>9572</v>
       </c>
       <c r="E146">
-        <v>111.22</v>
-      </c>
-      <c r="F146" t="s">
-        <v>134</v>
+        <v>55.384577699999987</v>
+      </c>
+      <c r="F146">
+        <v>37.385271749941808</v>
       </c>
       <c r="G146">
-        <v>55.384577699999987</v>
-      </c>
-      <c r="H146">
-        <v>37.385271749941808</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C147">
-        <v>762</v>
+        <v>7620000</v>
       </c>
       <c r="D147">
         <v>53281</v>
       </c>
       <c r="E147">
-        <v>6992.26</v>
-      </c>
-      <c r="F147" t="s">
-        <v>152</v>
+        <v>55.504821749999998</v>
+      </c>
+      <c r="F147">
+        <v>37.560518325373039</v>
       </c>
       <c r="G147">
-        <v>55.504821749999998</v>
-      </c>
-      <c r="H147">
-        <v>37.560518325373039</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
